--- a/cac mau data thuong gap.xlsx
+++ b/cac mau data thuong gap.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>NGUYỄN THANH PHONG</t>
   </si>
@@ -67,9 +72,6 @@
   </si>
   <si>
     <t>Xóm 7, ., Kim tân, Xã Kim Tân, Kim Son, Tinh Ninh Binh, VN, VIETNAM,</t>
-  </si>
-  <si>
-    <t>037191000669</t>
   </si>
   <si>
     <t>84384374165</t>
@@ -297,23 +299,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -424,7 +426,7 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
@@ -432,11 +434,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -500,6 +502,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -548,7 +553,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,7 +588,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -794,45 +799,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -852,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -872,7 +877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -892,209 +897,209 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1">
+        <v>37191000669</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="4">
         <v>15709572</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="6">
         <v>5537205</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D7" s="6">
         <v>9792049</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D8" s="6">
         <v>18721895</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D9" s="6">
         <v>7806199</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6">
         <v>30300000</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6">
         <v>49324728</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="6">
         <v>7263677</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="6">
         <v>31346500</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="6">
         <v>3977452</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="8">
         <v>206068627</v>
@@ -1105,7 +1110,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="9"/>
       <c r="F15" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1117,7 +1122,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
@@ -1128,7 +1133,7 @@
     </row>
     <row r="16" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="8">
         <v>25383256</v>
@@ -1139,7 +1144,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="9"/>
       <c r="F16" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -1160,7 +1165,7 @@
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="8">
         <v>79077009586</v>
@@ -1171,7 +1176,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="9"/>
       <c r="F17" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -1192,7 +1197,7 @@
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="8">
         <v>25768005</v>
@@ -1203,7 +1208,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="9"/>
       <c r="F18" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -1217,7 +1222,7 @@
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
@@ -1226,7 +1231,7 @@
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="8">
         <v>301437818</v>
@@ -1239,7 +1244,7 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -1252,7 +1257,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
@@ -1262,7 +1267,7 @@
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="8">
         <v>172835309</v>
@@ -1275,7 +1280,7 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -1296,7 +1301,7 @@
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="16">
         <v>40417010</v>
@@ -1309,7 +1314,7 @@
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
@@ -1357,7 +1362,7 @@
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23" s="21">
         <v>212734313</v>
@@ -1370,7 +1375,7 @@
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="13"/>
@@ -1392,7 +1397,7 @@
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21">
@@ -1423,7 +1428,7 @@
     </row>
     <row r="25" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" s="21">
         <v>20369235</v>
@@ -1434,7 +1439,7 @@
       <c r="D25" s="22"/>
       <c r="E25" s="23"/>
       <c r="F25" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="13"/>
@@ -1456,7 +1461,7 @@
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="21">
         <v>79091005120</v>
@@ -1528,7 +1533,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1540,7 +1545,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
